--- a/biology/Médecine/Candida_lusitaniae/Candida_lusitaniae.xlsx
+++ b/biology/Médecine/Candida_lusitaniae/Candida_lusitaniae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Candida lusitaniae est une espèce de levures peu fréquente. Elle peut causer chez les humains dont l'immunité est compromise des infections opportunistes essentiellement nosocomiales ou iatrogènes. C. lusitaniae a été initialement isolée du tube digestif des animaux à sang chaud[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Candida lusitaniae est une espèce de levures peu fréquente. Elle peut causer chez les humains dont l'immunité est compromise des infections opportunistes essentiellement nosocomiales ou iatrogènes. C. lusitaniae a été initialement isolée du tube digestif des animaux à sang chaud.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Épidémiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon une étude rétrospective de la prise en charge des candidémies en 2004 au CHU de Côte-de-Nacre du Centre hospitalier régional universitaire de Caen, C. lusitaniae ne représente que 7 % des cas[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon une étude rétrospective de la prise en charge des candidémies en 2004 au CHU de Côte-de-Nacre du Centre hospitalier régional universitaire de Caen, C. lusitaniae ne représente que 7 % des cas.
 </t>
         </is>
       </c>
